--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-U.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-U.RS0001.a205.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'T': 400.0 ton, 2.06 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'U': 450.0 ton, 2.06 COP liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>d1e081fb-cf86-4dcf-80cc-f3dd524cf6ff</t>
+          <t>96794f1d-b863-48e9-bf41-ce6611d44098</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'T' for Energy Cost Budget (ECB) Path B</t>
+          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'U' for Energy Cost Budget (ECB) Path B</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>706885.1910480591</v>
+        <v>828702.2431573835</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98172.66571217755</v>
+        <v>101446.9536307101</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>374117.1568241647</v>
+        <v>411645.8753948152</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>472289.8225363423</v>
+        <v>513092.8290255253</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.514012740995</v>
+        <v>278.4816422874842</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0877435924028</v>
+        <v>287.0479376890093</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>15000</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>203783.5588222046</v>
+        <v>224656.3988575441</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>748234.3136483295</v>
+        <v>823291.7507896303</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>952017.8724705341</v>
+        <v>1047948.149647175</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.9891365931011</v>
+        <v>279.9243956860795</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2659780401662</v>
+        <v>288.215608438973</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>15000</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>364990.4876893028</v>
+        <v>407730.7649205524</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1122351.470472494</v>
+        <v>1234937.626184446</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1487341.958161797</v>
+        <v>1642668.391104998</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.4642604452073</v>
+        <v>281.3671490846749</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.5807589427325</v>
+        <v>289.5139734427175</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15000</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>581793.4523134719</v>
+        <v>650670.051819735</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1496468.627296659</v>
+        <v>1646583.501579261</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2078262.079610131</v>
+        <v>2297253.553398996</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.9393842973134</v>
+        <v>282.8099024832702</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>291.0320863001019</v>
+        <v>290.9430327002427</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>15000</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>110325.4739942853</v>
+        <v>111189.6871774403</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>347710.8852798027</v>
+        <v>380113.309806132</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>458036.3592740879</v>
+        <v>491302.9969835723</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.4098942308178</v>
+        <v>278.3711256544052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1308353165296</v>
+        <v>296.0782786919881</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>15000</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,19 +2370,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>229009.9546162497</v>
+        <v>246231.8859007984</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>695421.7705596053</v>
+        <v>760226.619612264</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>924431.7251758551</v>
+        <v>1006458.505513062</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7808995727466</v>
+        <v>279.7033624199215</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2804223426335</v>
+        <v>297.2069655097559</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15000</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>410172.7121863491</v>
+        <v>446888.2956226168</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1043132.655839408</v>
+        <v>1140339.929418396</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1453305.368025757</v>
+        <v>1587228.225041013</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1519049146755</v>
+        <v>281.0355991854378</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5840079327112</v>
+        <v>298.4794106563896</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>15000</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>653813.7467045836</v>
+        <v>713158.9163428958</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1390843.541119211</v>
+        <v>1520453.239224528</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2044657.287823794</v>
+        <v>2233612.155567424</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.5229102566044</v>
+        <v>282.3678359509541</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>300.0415920867628</v>
+        <v>299.8956141318889</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15000</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109138.642452377</v>
+        <v>108750.9702577094</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>312443.662963424</v>
+        <v>341804.723038848</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>421582.3054158009</v>
+        <v>450555.6932965575</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2708374677491</v>
+        <v>278.2368601435438</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.1184060185353</v>
+        <v>305.0662591640668</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15000</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>226546.36912045</v>
+        <v>240831.2963176545</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>624887.325926848</v>
+        <v>683609.446077696</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>851433.695047298</v>
+        <v>924440.7423953505</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5027860466093</v>
+        <v>279.4348313981986</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.1813337332774</v>
+        <v>306.107870938511</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15000</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,19 +2590,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>405760.2596962012</v>
+        <v>437086.720715536</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>937330.988890272</v>
+        <v>1025414.169116544</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1343091.248586473</v>
+        <v>1462500.88983208</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7347346254696</v>
+        <v>280.6328026528536</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.3970944646016</v>
+        <v>307.2905412632978</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>15000</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>646780.3141796308</v>
+        <v>697517.2434513542</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1249774.651853696</v>
+        <v>1367218.892155392</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1896554.966033327</v>
+        <v>2064736.135606746</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9666832043297</v>
+        <v>281.8307739075084</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.7656882125078</v>
+        <v>308.6142701384271</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15000</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96180.09259847272</v>
+        <v>95956.77219282277</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>268315.4898750289</v>
+        <v>296720.1150929633</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>364495.5824735016</v>
+        <v>392676.887285786</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.096842451789</v>
+        <v>278.0788457548999</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.0542298409215</v>
+        <v>314.0159032772285</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>15000</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>199647.4417332108</v>
+        <v>212498.27732932</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>536630.9797500578</v>
+        <v>593440.2301859265</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>736278.4214832686</v>
+        <v>805938.5075152465</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.1547960146892</v>
+        <v>279.118802620911</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>314.9765376919352</v>
+        <v>314.9271985505073</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>15000</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,19 +2766,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>357582.4151137865</v>
+        <v>385664.889139096</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>804946.4696250868</v>
+        <v>890160.3452788899</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1162528.884738873</v>
+        <v>1275825.234417986</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2127495775893</v>
+        <v>280.1587594869221</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.0339672112912</v>
+        <v>315.963359500961</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>15000</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,19 +2810,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>569985.0127401995</v>
+        <v>615456.607622151</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1073261.959500116</v>
+        <v>1186880.460371853</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1643246.972240315</v>
+        <v>1802337.067994004</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.2707031404894</v>
+        <v>281.1987163529332</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.2265183989894</v>
+        <v>317.1243861285893</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>15000</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>95969.21042544091</v>
+        <v>105256.7038487258</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>403033.7018345352</v>
+        <v>460386.898222593</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>499002.9122599761</v>
+        <v>565643.6020713189</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5203861073811</v>
+        <v>282.544882155263</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.1533521856941</v>
+        <v>287.1626640424879</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15000</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>199209.6995225778</v>
+        <v>233093.1703316465</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>806067.4036690703</v>
+        <v>920773.796445186</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1005277.103191648</v>
+        <v>1153866.966776832</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1129944369844</v>
+        <v>284.1619865327482</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.396785192897</v>
+        <v>288.4468453732702</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15000</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>356798.3884540081</v>
+        <v>423042.7315686822</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1209101.105503605</v>
+        <v>1381160.694667779</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1565899.493957614</v>
+        <v>1804203.426236461</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.7056027665877</v>
+        <v>285.7790909102334</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.7736999117226</v>
+        <v>289.866629064425</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>15000</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>568735.2772197316</v>
+        <v>675105.3875598329</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1612134.807338141</v>
+        <v>1841547.592890372</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2180870.084557872</v>
+        <v>2516652.980450205</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.298211096191</v>
+        <v>287.3961952877186</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2840963421712</v>
+        <v>291.4220151159523</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15000</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112865.913988423</v>
+        <v>120168.8341563344</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>384483.1471510784</v>
+        <v>435974.7395042803</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>497349.0611395014</v>
+        <v>556143.5736606147</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4470826397724</v>
+        <v>282.4591346918151</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.2277345898278</v>
+        <v>296.2203420164409</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>234283.3155790398</v>
+        <v>266116.3945321181</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>768966.2943021569</v>
+        <v>871949.4790085607</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1003249.609881197</v>
+        <v>1138065.873540679</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.966387501767</v>
+        <v>283.9904916058524</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.4746953228271</v>
+        <v>297.495312424337</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15000</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,19 +3118,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>419617.6674157833</v>
+        <v>482976.8555547927</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1153449.441453235</v>
+        <v>1307924.218512841</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1573067.108869018</v>
+        <v>1790901.074067634</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4856923637616</v>
+        <v>285.5218485198896</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.8792007102614</v>
+        <v>298.9256503957059</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>15000</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>668868.9694986535</v>
+        <v>770750.2172243585</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>1537932.588604314</v>
+        <v>1743898.958017121</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2206801.558102967</v>
+        <v>2514649.17524148</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>287.0049972257563</v>
+        <v>287.0532054339268</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.4412507521307</v>
+        <v>300.5113559305476</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15000</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>116449.6526639783</v>
+        <v>122331.8894659757</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>357071.6416956052</v>
+        <v>404786.5596073667</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>473521.2943595835</v>
+        <v>527118.4490733425</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3387646710352</v>
+        <v>282.3495865217177</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2468396869047</v>
+        <v>305.2345461105587</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>15000</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>241722.3212930596</v>
+        <v>270906.5257189318</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>714143.2833912105</v>
+        <v>809573.1192147335</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>955865.6046842701</v>
+        <v>1080479.644933665</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7497515642926</v>
+        <v>283.7713952656576</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4395708211039</v>
+        <v>306.4508485413376</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>15000</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>432941.4425975315</v>
+        <v>491670.5044461729</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>1071214.925086816</v>
+        <v>1214359.6788221</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1504156.367684347</v>
+        <v>1706030.183268273</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.16073845755</v>
+        <v>285.1932040095974</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.7953729931743</v>
+        <v>307.8258250413946</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>15000</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>690107.0165773939</v>
+        <v>784623.8256476993</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>1428286.566782421</v>
+        <v>1619146.238429467</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>2118393.583359815</v>
+        <v>2403770.064077166</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5717253508074</v>
+        <v>286.6150127535373</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3142462031159</v>
+        <v>309.3594756107298</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>15000</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>107734.7424572145</v>
+        <v>113116.6067311356</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>320799.1854681155</v>
+        <v>366822.3585318524</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>428533.92792533</v>
+        <v>479938.9652629879</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.1954322011695</v>
+        <v>282.2162376449709</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.2130942708491</v>
+        <v>314.2083274349641</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>15000</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>223632.2001390001</v>
+        <v>250499.0895212955</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>641598.370936231</v>
+        <v>733644.7170637047</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>865230.5710752311</v>
+        <v>984143.8065850002</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.4630866245612</v>
+        <v>283.5046975121639</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.2964383637644</v>
+        <v>315.3201642622165</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>15000</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>400540.7809320854</v>
+        <v>454632.8789289678</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>962397.5564043465</v>
+        <v>1100467.075595557</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1362938.337336432</v>
+        <v>1555099.954524525</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7307410479528</v>
+        <v>284.793157379357</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.531137043122</v>
+        <v>316.5791963460038</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>15000</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,19 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>638460.4848364706</v>
+        <v>725517.9749541522</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1283196.741872462</v>
+        <v>1467289.434127409</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1921657.226708933</v>
+        <v>2192807.409081561</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>285.9983954713445</v>
+        <v>286.08161724655</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>317.9171903089222</v>
+        <v>317.985423686326</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>15000</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>91854.34820924811</v>
+        <v>104512.443491699</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>413419.9032136296</v>
+        <v>480562.5240762963</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>505274.2514228777</v>
+        <v>585074.9675679953</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4533704940581</v>
+        <v>286.5077931650768</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.1687548869461</v>
+        <v>287.2050856773628</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>15000</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>190668.2052034033</v>
+        <v>231444.990217429</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>826839.8064272591</v>
+        <v>961125.0481525926</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1017508.011630662</v>
+        <v>1192570.038370022</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0900743214495</v>
+        <v>288.1989196634869</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.4268248740294</v>
+        <v>288.5313400821955</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>15000</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>341499.979715004</v>
+        <v>420051.4357849246</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>1240259.709640889</v>
+        <v>1441687.572228889</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1581759.689355893</v>
+        <v>1861739.008013814</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.726778148841</v>
+        <v>289.8900461618971</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.8126532907654</v>
+        <v>289.9922380157307</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>15000</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>544349.6717440506</v>
+        <v>670331.7801941857</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>1653679.612854518</v>
+        <v>1922250.096305185</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2198029.284598569</v>
+        <v>2592581.876499371</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.3634819762324</v>
+        <v>291.5811726603072</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3262401371541</v>
+        <v>291.5877794779682</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>15000</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>112027.198206228</v>
+        <v>122959.6295842754</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>402725.0653910782</v>
+        <v>463270.772228354</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>514752.2635973062</v>
+        <v>586230.4018126294</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4110302925791</v>
+        <v>286.4469425196583</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2706305901332</v>
+        <v>296.2862611530149</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>15000</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,19 +3778,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>232542.3372150915</v>
+        <v>272296.6693294435</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>805450.1307821564</v>
+        <v>926541.544456708</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1037992.467997248</v>
+        <v>1198838.213786151</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.0053939184915</v>
+        <v>288.07721837265</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5603306911433</v>
+        <v>297.6284623920346</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>15000</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,19 +3822,19 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>416499.4544167239</v>
+        <v>494193.4876353712</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>1208175.196173235</v>
+        <v>1389812.316685062</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1624674.650589959</v>
+        <v>1884005.804320433</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5997575444039</v>
+        <v>289.7074942256416</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0064047194539</v>
+        <v>299.1296394436113</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>15000</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>663898.5498111249</v>
+        <v>788650.0845020582</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>1610900.261564313</v>
+        <v>1853083.088913416</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2274798.811375438</v>
+        <v>2641733.173415474</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1941211703164</v>
+        <v>291.3377700786332</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.6088526750648</v>
+        <v>300.789792307745</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>15000</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,19 +3910,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>119280.8260074035</v>
+        <v>128654.900754381</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>383169.2767965102</v>
+        <v>439202.9992018108</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>502450.1028039136</v>
+        <v>567857.8999561919</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3336101350308</v>
+        <v>286.362246675343</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3183742520862</v>
+        <v>305.3240924927555</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>15000</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>247599.1768860129</v>
+        <v>284908.9663556383</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>766338.5535930203</v>
+        <v>878405.9984036216</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1013937.730479033</v>
+        <v>1163314.96475926</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.850553603395</v>
+        <v>287.9078266840194</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.5831703846976</v>
+        <v>306.6329227482244</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>15000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,19 +3998,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>443467.2985662315</v>
+        <v>517083.6503017657</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1149507.83038953</v>
+        <v>1317608.997605432</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1592975.128955762</v>
+        <v>1834692.647907198</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3674970717591</v>
+        <v>289.4534066926959</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0150022074136</v>
+        <v>308.1086285152576</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>15000</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,19 +4042,19 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>706885.1910480591</v>
+        <v>825178.952592763</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1532677.107186041</v>
+        <v>1756811.996807243</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2239562.2982341</v>
+        <v>2581990.949400006</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8844405401233</v>
+        <v>290.9989867013722</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6138697202342</v>
+        <v>309.7512097938554</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>15000</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>114075.9421109698</v>
+        <v>122513.7615876822</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>354752.5374299258</v>
+        <v>408359.2049966668</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>468828.4795408956</v>
+        <v>530872.9665843491</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2211100214133</v>
+        <v>286.2537056321311</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3130558005612</v>
+        <v>314.3206434894469</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>15000</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>236795.0517664883</v>
+        <v>271309.2853332215</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>709505.0748598515</v>
+        <v>816718.4099933335</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>946300.1266263397</v>
+        <v>1088027.695326555</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.62555337616</v>
+        <v>287.6907445975955</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.497553315068</v>
+        <v>315.5492416605179</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>15000</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>424116.3611342669</v>
+        <v>492401.4762166124</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>1064257.612289777</v>
+        <v>1225077.61499</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1488373.973424044</v>
+        <v>1717479.091206613</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.0299967309066</v>
+        <v>289.1277835630599</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.8423140524446</v>
+        <v>316.9372633246294</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>15000</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>676039.8702143058</v>
+        <v>785790.3342378549</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>1419010.149719703</v>
+        <v>1633436.819986667</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2095050.019934009</v>
+        <v>2419227.154224522</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.4344400856533</v>
+        <v>290.5648225285242</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.347338012691</v>
+        <v>318.4847084817813</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>15000</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>86974.40036276722</v>
+        <v>100573.0675668802</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>405275.7609614484</v>
+        <v>472172.7529559256</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>492250.1613242156</v>
+        <v>572745.8205228058</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3126752243769</v>
+        <v>290.3699106363349</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1367671146924</v>
+        <v>287.1781692687163</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>15000</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>180538.5715440895</v>
+        <v>222721.1599066884</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>810551.5219228967</v>
+        <v>944345.5059118512</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>991090.0934669862</v>
+        <v>1167066.665818539</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.9197948931983</v>
+        <v>292.0342657171142</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3619412358454</v>
+        <v>288.4756623297163</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>15000</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>323357.1032690558</v>
+        <v>404218.4836690541</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>1215827.282884345</v>
+        <v>1416518.258867777</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1539184.386153401</v>
+        <v>1820736.742536831</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.5269145620196</v>
+        <v>293.6986207978935</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.7080863619314</v>
+        <v>289.9027238158456</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>15000</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,19 +4394,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>515429.9955376658</v>
+        <v>645065.0388539775</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>1621103.043845793</v>
+        <v>1888691.011823702</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2136533.039383459</v>
+        <v>2533756.05067768</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.1340342308409</v>
+        <v>295.3629758786727</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.1752024929503</v>
+        <v>291.4593537271041</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>15000</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>109121.7425724861</v>
+        <v>120983.6300657079</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>402436.6399998023</v>
+        <v>462001.4079783538</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>511558.3825722884</v>
+        <v>582985.0380440617</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3014166997398</v>
+        <v>290.3340578058067</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2627582044757</v>
+        <v>296.2791506800727</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>15000</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,19 +4482,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>226511.2889110775</v>
+        <v>267920.777101062</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>804873.2799996047</v>
+        <v>924002.8159567076</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1031384.568910682</v>
+        <v>1191923.59305777</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.897277843924</v>
+        <v>291.9625600560577</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.5440433186369</v>
+        <v>297.6133127117211</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>15000</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>405697.4286081532</v>
+        <v>486251.6444714945</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>1207309.919999407</v>
+        <v>1386004.223935061</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1613007.34860756</v>
+        <v>1872255.868406556</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.4931389881082</v>
+        <v>293.5910623063087</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.9776467600718</v>
+        <v>299.1038957651375</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>15000</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>646680.1616637132</v>
+        <v>775976.2321770056</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>1609746.559999209</v>
+        <v>1848005.631913415</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2256426.721662923</v>
+        <v>2623981.864090421</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.0890001322924</v>
+        <v>295.2195645565598</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5635685287803</v>
+        <v>300.7508998403219</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>15000</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,19 +4614,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>119110.6730330558</v>
+        <v>129204.2223245639</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>390736.5682661398</v>
+        <v>445054.041822181</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>509847.2412991956</v>
+        <v>574258.2641467449</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.255020104579</v>
+        <v>290.274320273746</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3366657446952</v>
+        <v>305.338160661216</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>15000</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,19 +4658,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>247245.9789932469</v>
+        <v>286125.4504525516</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>781473.1365322795</v>
+        <v>890108.0836443621</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1028719.115525526</v>
+        <v>1176233.534096914</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8044846536025</v>
+        <v>291.8430849919365</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6197214909803</v>
+        <v>306.6613181026603</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>15000</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,19 +4702,19 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>442834.6966435025</v>
+        <v>519291.4573968248</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>1172209.704798419</v>
+        <v>1335162.125466543</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1615044.401441922</v>
+        <v>1854453.582863368</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.3539492026259</v>
+        <v>293.4118497101269</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.069574652532</v>
+        <v>308.1520635688925</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>15000</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>705876.8259838223</v>
+        <v>828702.2431573835</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>1562946.273064559</v>
+        <v>1780216.167288724</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2268823.099048382</v>
+        <v>2608918.410446107</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.9034137516494</v>
+        <v>294.9806144283173</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.6862252293503</v>
+        <v>309.8103970599125</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>15000</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>116848.2967357594</v>
+        <v>125695.116561295</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>370175.5457604607</v>
+        <v>421330.6544874073</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>487023.8424962201</v>
+        <v>547025.7710487023</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1734854388947</v>
+        <v>290.190698040153</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3581943178484</v>
+        <v>314.3562625105173</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>15000</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>242549.8134168765</v>
+        <v>278354.4624063654</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>740351.0915209214</v>
+        <v>842661.3089748146</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>982900.9049377979</v>
+        <v>1121015.77138118</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6414153222338</v>
+        <v>291.6758405247505</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.5883514414145</v>
+        <v>315.6219846308582</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>15000</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>434423.53838375</v>
+        <v>505187.826623908</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>1110526.637281382</v>
+        <v>1263991.963462222</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1544950.175665132</v>
+        <v>1769179.79008613</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.1093452055729</v>
+        <v>293.1609830093479</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.9826666185999</v>
+        <v>317.0512700462987</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>15000</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>0.06027486151332805</v>
+        <v>0.06780921920249407</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.09720566538506879</v>
+        <v>0.1093563735582024</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>692469.4716363796</v>
+        <v>806195.2092139225</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>1480702.183041843</v>
+        <v>1685322.617949629</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2173171.654678223</v>
+        <v>2491517.827163552</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.5772750889121</v>
+        <v>294.6461254939454</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5411398494044</v>
+        <v>318.6441187568389</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>15000</v>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-U.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-U.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'U': 450.0 ton, 2.06 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'U': 400.0+ ton, 6.01 COP, 9.25 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>96794f1d-b863-48e9-bf41-ce6611d44098</t>
+          <t>557efc07-0375-48f2-acf0-9fd166db98d9</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>828702.2431573835</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101446.9536307101</v>
+        <v>34717.67882943026</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>411645.8753948152</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>513092.8290255253</v>
+        <v>446363.5542242454</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4816422874842</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0479376890093</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>224656.3988575441</v>
+        <v>76883.02529916006</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>823291.7507896303</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1047948.149647175</v>
+        <v>900174.7760887904</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.9243956860795</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.215608438973</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>407730.7649205524</v>
+        <v>139535.641424175</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1234937.626184446</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1642668.391104998</v>
+        <v>1374473.26760862</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.3671490846749</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.5139734427175</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>650670.051819735</v>
+        <v>222675.527204475</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1646583.501579261</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2297253.553398996</v>
+        <v>1869259.028783736</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.8099024832702</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.9430327002427</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111189.6871774403</v>
+        <v>38051.8853490995</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>380113.309806132</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>491302.9969835723</v>
+        <v>418165.1951552315</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3711256544052</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.0782786919881</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246231.8859007984</v>
+        <v>84266.69531534359</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>760226.619612264</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1006458.505513062</v>
+        <v>844493.3149276075</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7033624199215</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2069655097559</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446888.2956226168</v>
+        <v>152936.3254862767</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1140339.929418396</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1587228.225041013</v>
+        <v>1293276.254904673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0355991854378</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.4794106563896</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>713158.9163428958</v>
+        <v>244060.7758618988</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1520453.239224528</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2233612.155567424</v>
+        <v>1764514.015086427</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3678359509541</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8956141318889</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108750.9702577094</v>
+        <v>37217.29556848056</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>341804.723038848</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>450555.6932965575</v>
+        <v>379022.0186073286</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2368601435438</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.0662591640668</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240831.2963176545</v>
+        <v>82418.47880487364</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>683609.446077696</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>924440.7423953505</v>
+        <v>766027.9248825697</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.4348313981986</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.107870938511</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>437086.720715536</v>
+        <v>149581.9819848902</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1025414.169116544</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1462500.88983208</v>
+        <v>1174996.151101434</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.6328026528536</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.2905412632978</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>697517.2434513542</v>
+        <v>238707.8051085301</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1367218.892155392</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2064736.135606746</v>
+        <v>1605926.697263922</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.8307739075084</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.6142701384271</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95956.77219282277</v>
+        <v>32838.80175077769</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>296720.1150929633</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>392676.887285786</v>
+        <v>329558.916843741</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.0788457548999</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.0159032772285</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212498.27732932</v>
+        <v>72722.21274363853</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>593440.2301859265</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>805938.5075152465</v>
+        <v>666162.4429295651</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.118802620911</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>314.9271985505073</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>385664.889139096</v>
+        <v>131984.1481456346</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>890160.3452788899</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1275825.234417986</v>
+        <v>1022144.493424524</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.1587594869221</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>315.963359500961</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>615456.607622151</v>
+        <v>210624.6079567659</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1186880.460371853</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1802337.067994004</v>
+        <v>1397505.068328619</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.1987163529332</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.1243861285893</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105256.7038487258</v>
+        <v>36021.47041464533</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>460386.898222593</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>565643.6020713189</v>
+        <v>496408.3686372383</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.544882155263</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.1626640424879</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>233093.1703316465</v>
+        <v>79770.29901130548</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>920773.796445186</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1153866.966776832</v>
+        <v>1000544.095456491</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.1619865327482</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.4468453732702</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>423042.7315686822</v>
+        <v>144775.778474242</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1381160.694667779</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1804203.426236461</v>
+        <v>1525936.473142021</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.7790909102334</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.866629064425</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>675105.3875598329</v>
+        <v>231037.908803455</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1841547.592890372</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2516652.980450205</v>
+        <v>2072585.501693827</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.3961952877186</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.4220151159523</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120168.8341563344</v>
+        <v>41124.77349229874</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>435974.7395042803</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>556143.5736606147</v>
+        <v>477099.5129965791</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4591346918151</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.2203420164409</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>266116.3945321181</v>
+        <v>91071.67032579287</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>871949.4790085607</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1138065.873540679</v>
+        <v>963021.1493343535</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9904916058524</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.495312424337</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>482976.8555547927</v>
+        <v>165286.7311741873</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1307924.218512841</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1790901.074067634</v>
+        <v>1473210.949687028</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.5218485198896</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9256503957059</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>770750.2172243585</v>
+        <v>263769.9560374821</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1743898.958017121</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2514649.17524148</v>
+        <v>2007668.914054603</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>287.0532054339268</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.5113559305476</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>122331.8894659757</v>
+        <v>41865.02499165662</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>404786.5596073667</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>527118.4490733425</v>
+        <v>446651.5845990233</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3495865217177</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2345461105587</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>270906.5257189318</v>
+        <v>92710.97274092518</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>809573.1192147335</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1080479.644933665</v>
+        <v>902284.0919556586</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7713952656576</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4508485413376</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>491670.5044461729</v>
+        <v>168261.9147481118</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>1214359.6788221</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1706030.183268273</v>
+        <v>1382621.593570212</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1932040095974</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8258250413946</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>784623.8256476993</v>
+        <v>268517.8510132166</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1619146.238429467</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>2403770.064077166</v>
+        <v>1887664.089442684</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.6150127535373</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3594756107298</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>113116.6067311356</v>
+        <v>38711.32530073043</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>366822.3585318524</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>479938.9652629879</v>
+        <v>405533.6838325828</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2162376449709</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.2083274349641</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>250499.0895212955</v>
+        <v>85727.03886923176</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>733644.7170637047</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>984143.8065850002</v>
+        <v>819371.7559329364</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5046975121639</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.3201642622165</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>454632.8789289678</v>
+        <v>155586.7151359888</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>1100467.075595557</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1555099.954524525</v>
+        <v>1256053.790731546</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.793157379357</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.5791963460038</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>725517.9749541522</v>
+        <v>248290.3541010015</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1467289.434127409</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2192807.409081561</v>
+        <v>1715579.788228411</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.08161724655</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>317.985423686326</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>104512.443491699</v>
+        <v>35766.7659497405</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>480562.5240762963</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>585074.9675679953</v>
+        <v>516329.2900260368</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.5077931650768</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.2050856773628</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>231444.990217429</v>
+        <v>79206.25065095004</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>961125.0481525926</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1192570.038370022</v>
+        <v>1040331.298803543</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.1989196634869</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.5313400821955</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>420051.4357849246</v>
+        <v>143752.0824184455</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1441687.572228889</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1861739.008013814</v>
+        <v>1585439.654647334</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8900461618971</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.9922380157307</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>670331.7801941857</v>
+        <v>229404.261252227</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1922250.096305185</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2592581.876499371</v>
+        <v>2151654.357557412</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.5811726603072</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.5877794779682</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>122959.6295842754</v>
+        <v>42079.85332346451</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>463270.772228354</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>586230.4018126294</v>
+        <v>505350.6255518185</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4469425196583</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2862611530149</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>272296.6693294435</v>
+        <v>93186.71457120447</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>926541.544456708</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1198838.213786151</v>
+        <v>1019728.259027913</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.07721837265</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.6284623920346</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>494193.4876353712</v>
+        <v>169125.3425487483</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1389812.316685062</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1884005.804320433</v>
+        <v>1558937.65923381</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.7074942256416</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1296394436113</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>788650.0845020582</v>
+        <v>269895.7372560961</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1853083.088913416</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2641733.173415474</v>
+        <v>2122978.826169512</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.3377700786332</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.789792307745</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>128654.900754381</v>
+        <v>44028.91722586624</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>439202.9992018108</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>567857.8999561919</v>
+        <v>483231.916427677</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.362246675343</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3240924927555</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>284908.9663556383</v>
+        <v>97502.95731468548</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>878405.9984036216</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1163314.96475926</v>
+        <v>975908.9557183071</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.9078266840194</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.6329227482244</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>517083.6503017657</v>
+        <v>176958.9273668609</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1317608.997605432</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1834692.647907198</v>
+        <v>1494567.924972293</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.4534066926959</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1086285152576</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>825178.952592763</v>
+        <v>282396.8273823925</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1756811.996807243</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2581990.949400006</v>
+        <v>2039208.824189636</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.9989867013722</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.7512097938554</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>122513.7615876822</v>
+        <v>41927.26616976452</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>408359.2049966668</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>530872.9665843491</v>
+        <v>450286.4711664313</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2537056321311</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3206434894469</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>271309.2853332215</v>
+        <v>92848.80713056367</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>816718.4099933335</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1088027.695326555</v>
+        <v>909567.2171238972</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.6907445975955</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.5492416605179</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>492401.4762166124</v>
+        <v>168512.0715271106</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1225077.61499</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1717479.091206613</v>
+        <v>1393589.686517111</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.1277835630599</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.9372633246294</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>785790.3342378549</v>
+        <v>268917.0593594053</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1633436.819986667</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2419227.154224522</v>
+        <v>1902353.879346072</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.5648225285242</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.4847084817813</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>100573.0675668802</v>
+        <v>34418.61321324624</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>472172.7529559256</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>572745.8205228058</v>
+        <v>506591.3661691718</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3699106363349</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1781692687163</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>222721.1599066884</v>
+        <v>76220.73824223581</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>944345.5059118512</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1167066.665818539</v>
+        <v>1020566.244154087</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0342657171142</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.4756623297163</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>404218.4836690541</v>
+        <v>138333.6511417262</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1416518.258867777</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1820736.742536831</v>
+        <v>1554851.910009503</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.6986207978935</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.9027238158456</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>645065.0388539775</v>
+        <v>220757.3519117174</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1888691.011823702</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2533756.05067768</v>
+        <v>2109448.36373542</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.3629758786727</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.4593537271041</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>120983.6300657079</v>
+        <v>41403.61698321458</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>462001.4079783538</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>582985.0380440617</v>
+        <v>503405.0249615684</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3340578058067</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2791506800727</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>267920.777101062</v>
+        <v>91689.175063708</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>924002.8159567076</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1191923.59305777</v>
+        <v>1015691.991020416</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9625600560577</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.6133127117211</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>486251.6444714945</v>
+        <v>166407.4456537773</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1386004.223935061</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1872255.868406556</v>
+        <v>1552411.669588839</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5910623063087</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1038957651375</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>775976.2321770056</v>
+        <v>265558.4287534226</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1848005.631913415</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2623981.864090421</v>
+        <v>2113564.060666838</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.2195645565598</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.7508998403219</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>129204.2223245639</v>
+        <v>44216.90877381464</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>445054.041822181</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>574258.2641467449</v>
+        <v>489270.9505959956</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.274320273746</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.338160661216</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>286125.4504525516</v>
+        <v>97919.26852627182</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>890108.0836443621</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1176233.534096914</v>
+        <v>988027.3521706339</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.8430849919365</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6613181026603</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>519291.4573968248</v>
+        <v>177714.494043832</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1335162.125466543</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1854453.582863368</v>
+        <v>1512876.619510375</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.4118497101269</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1520635688925</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>828702.2431573835</v>
+        <v>283602.5853264952</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1780216.167288724</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2608918.410446107</v>
+        <v>2063818.752615219</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.9806144283173</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.8103970599125</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>125695.116561295</v>
+        <v>43016.00522267249</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>421330.6544874073</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>547025.7710487023</v>
+        <v>464346.6597100798</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.190698040153</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3562625105173</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>278354.4624063654</v>
+        <v>95259.84251573894</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>842661.3089748146</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1121015.77138118</v>
+        <v>937921.1514905535</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.6758405247505</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.6219846308582</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>505187.826623908</v>
+        <v>172887.8796805716</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1263991.963462222</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1769179.79008613</v>
+        <v>1436879.843142794</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.1609830093479</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.0512700462987</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1093563735582024</v>
+        <v>0.08582891212228397</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>806195.2092139225</v>
+        <v>275900.1167171705</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1685322.617949629</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2491517.827163552</v>
+        <v>1961222.7346668</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.6461254939454</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.6441187568389</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06780921920249407</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.08582891212228397</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.08582891212228397</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.08582891212228397</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.08582891212228397</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>